--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="H2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="I2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="J2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.853949723207173</v>
+        <v>1.676256</v>
       </c>
       <c r="N2">
-        <v>0.853949723207173</v>
+        <v>5.028768</v>
       </c>
       <c r="O2">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="P2">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="Q2">
-        <v>10.78879422405513</v>
+        <v>27.717905418624</v>
       </c>
       <c r="R2">
-        <v>10.78879422405513</v>
+        <v>249.461148767616</v>
       </c>
       <c r="S2">
-        <v>0.001734917658370083</v>
+        <v>0.003777393205391803</v>
       </c>
       <c r="T2">
-        <v>0.001734917658370083</v>
+        <v>0.003777393205391803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="H3">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="I3">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="J3">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4392189731581</v>
+        <v>63.45677799999999</v>
       </c>
       <c r="N3">
-        <v>62.4392189731581</v>
+        <v>190.370334</v>
       </c>
       <c r="O3">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="P3">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="Q3">
-        <v>788.8566114666821</v>
+        <v>1049.296152123912</v>
       </c>
       <c r="R3">
-        <v>788.8566114666821</v>
+        <v>9443.665369115206</v>
       </c>
       <c r="S3">
-        <v>0.1268539594632406</v>
+        <v>0.1429979681225636</v>
       </c>
       <c r="T3">
-        <v>0.1268539594632406</v>
+        <v>0.1429979681225636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="H4">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="I4">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="J4">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.2587665615307</v>
+        <v>28.96419433333334</v>
       </c>
       <c r="N4">
-        <v>22.2587665615307</v>
+        <v>86.892583</v>
       </c>
       <c r="O4">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="P4">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="Q4">
-        <v>281.2170852538274</v>
+        <v>478.940447675044</v>
       </c>
       <c r="R4">
-        <v>281.2170852538274</v>
+        <v>4310.464029075396</v>
       </c>
       <c r="S4">
-        <v>0.04522178075789177</v>
+        <v>0.06526995332119979</v>
       </c>
       <c r="T4">
-        <v>0.04522178075789177</v>
+        <v>0.06526995332119979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="H5">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="I5">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="J5">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.853949723207173</v>
+        <v>1.676256</v>
       </c>
       <c r="N5">
-        <v>0.853949723207173</v>
+        <v>5.028768</v>
       </c>
       <c r="O5">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="P5">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="Q5">
-        <v>34.65321540386486</v>
+        <v>68.09057587878401</v>
       </c>
       <c r="R5">
-        <v>34.65321540386486</v>
+        <v>612.8151829090561</v>
       </c>
       <c r="S5">
-        <v>0.005572492539473989</v>
+        <v>0.009279376446061275</v>
       </c>
       <c r="T5">
-        <v>0.005572492539473989</v>
+        <v>0.009279376446061274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="H6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="I6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="J6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4392189731581</v>
+        <v>63.45677799999999</v>
       </c>
       <c r="N6">
-        <v>62.4392189731581</v>
+        <v>190.370334</v>
       </c>
       <c r="O6">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="P6">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="Q6">
-        <v>2533.778799763136</v>
+        <v>2577.654342434659</v>
       </c>
       <c r="R6">
-        <v>2533.778799763136</v>
+        <v>23198.88908191193</v>
       </c>
       <c r="S6">
-        <v>0.4074503128729202</v>
+        <v>0.3512824599083548</v>
       </c>
       <c r="T6">
-        <v>0.4074503128729202</v>
+        <v>0.3512824599083548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="H7">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="I7">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="J7">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.2587665615307</v>
+        <v>28.96419433333334</v>
       </c>
       <c r="N7">
-        <v>22.2587665615307</v>
+        <v>86.892583</v>
       </c>
       <c r="O7">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="P7">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="Q7">
-        <v>903.2590693795876</v>
+        <v>1176.543840571893</v>
       </c>
       <c r="R7">
-        <v>903.2590693795876</v>
+        <v>10588.89456514704</v>
       </c>
       <c r="S7">
-        <v>0.1452507181994026</v>
+        <v>0.1603392695840461</v>
       </c>
       <c r="T7">
-        <v>0.1452507181994026</v>
+        <v>0.1603392695840461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="H8">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="I8">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="J8">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.853949723207173</v>
+        <v>1.676256</v>
       </c>
       <c r="N8">
-        <v>0.853949723207173</v>
+        <v>5.028768</v>
       </c>
       <c r="O8">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="P8">
-        <v>0.009981652906307087</v>
+        <v>0.01781408474712955</v>
       </c>
       <c r="Q8">
-        <v>16.63010007857839</v>
+        <v>34.908415062624</v>
       </c>
       <c r="R8">
-        <v>16.63010007857839</v>
+        <v>314.175735563616</v>
       </c>
       <c r="S8">
-        <v>0.002674242708463016</v>
+        <v>0.004757315095676477</v>
       </c>
       <c r="T8">
-        <v>0.002674242708463016</v>
+        <v>0.004757315095676476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="H9">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="I9">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="J9">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4392189731581</v>
+        <v>63.45677799999999</v>
       </c>
       <c r="N9">
-        <v>62.4392189731581</v>
+        <v>190.370334</v>
       </c>
       <c r="O9">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="P9">
-        <v>0.7298399362321299</v>
+        <v>0.6743745711107288</v>
       </c>
       <c r="Q9">
-        <v>1215.962055063487</v>
+        <v>1321.501933452162</v>
       </c>
       <c r="R9">
-        <v>1215.962055063487</v>
+        <v>11893.51740106946</v>
       </c>
       <c r="S9">
-        <v>0.1955356638959692</v>
+        <v>0.1800941430798105</v>
       </c>
       <c r="T9">
-        <v>0.1955356638959692</v>
+        <v>0.1800941430798105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="H10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="I10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="J10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.2587665615307</v>
+        <v>28.96419433333334</v>
       </c>
       <c r="N10">
-        <v>22.2587665615307</v>
+        <v>86.892583</v>
       </c>
       <c r="O10">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="P10">
-        <v>0.2601784108615631</v>
+        <v>0.3078113441421415</v>
       </c>
       <c r="Q10">
-        <v>433.4746010031382</v>
+        <v>603.1859797921691</v>
       </c>
       <c r="R10">
-        <v>433.4746010031382</v>
+        <v>5428.673818129521</v>
       </c>
       <c r="S10">
-        <v>0.06970591190426874</v>
+        <v>0.08220212123689563</v>
       </c>
       <c r="T10">
-        <v>0.06970591190426874</v>
+        <v>0.08220212123689562</v>
       </c>
     </row>
   </sheetData>
